--- a/app/results/reviewed/805117974.xlsx
+++ b/app/results/reviewed/805117974.xlsx
@@ -2424,7 +2424,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'DISTRITO_RPP': {'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH', 'pagina_encontrado': 5, 'pagina_real': 62, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO', 'pagina_encontrado': 49, 'pagina_real': 14, 'texto_es_correcto': False, 'pagina_es_correcta': False}}</t>
+          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'VIGESIMA TERCERA', 'valor_real': 'VIGESIMA TERCERA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'VIGESIMA QUINTA', 'valor_real': 'VIGESIMA QUINTA', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA SEGUNDA', 'valor_real': 'DECIMA SEGUNDA', 'pagina_encontrado': 14, 'pagina_real': 14, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA', 'valor_real': 'VIGESIMA', 'pagina_encontrado': 17, 'pagina_real': 17, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'SEXTA', 'valor_real': 'SEXTA', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CREDITO_PESOS': {'valor_encontrado': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'valor_real': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DISTRITO_RPP': {'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH', 'pagina_encontrado': 5, 'pagina_real': 62, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_ESCRITURA': {'valor_encontrado': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'valor_real': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'CHIHUAHUA, CHIHUAHUA', 'valor_real': 'CHIHUAHUA, CHIHUAHUA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL', 'valor_real': 'DISTRITO FEDERAL', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'valor_real': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO', 'valor_real': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS', 'valor_real': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA', 'valor_real': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOTARIO': {'valor_encontrado': 'LUIS ARTURO CALDERON TRUEBA', 'valor_real': 'LUIS ARTURO CALDERON TRUEBA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 13, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': 'DIEZ', 'valor_real': 'DIEZ', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': '30 TREINTA AÑOS', 'valor_real': '30 TREINTA AÑOS', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'REA_VSM': {'valor_encontrado': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'valor_real': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'valor_real': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO', 'pagina_encontrado': 49, 'pagina_real': 14, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.00% NUEVE PUNTO CERO POR CIENTO', 'valor_real': '9.00% NUEVE PUNTO CERO POR CIENTO', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'valor_real': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA HABITACION', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/805117974.xlsx
+++ b/app/results/reviewed/805117974.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K42"/>
+  <dimension ref="A1:L75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,30 +458,35 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>modelo_ner</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>valor_encontrado</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>pagina_encontrado</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>valor_real</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>pagina_real</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>texto_es_correcto</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>pagina_es_correcta</t>
         </is>
@@ -492,44 +497,41 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>106</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>df106</t>
+          <t>df006</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>CIUDAD_INMUEBLE</t>
+          <t>APODERADO</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>CIUDAD DEL INMUEBLE</t>
+          <t>APODERADO</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>27</v>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>CHIHUAHUA</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
-        <v>27</v>
-      </c>
-      <c r="J2" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="inlineStr"/>
+      <c r="J2" t="n">
+        <v>-1</v>
       </c>
       <c r="K2" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L2" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -537,43 +539,48 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>106</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>df041</t>
+          <t>df106</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>CLAUSULA_ACTUALIZACION_CREDITO</t>
+          <t>CIUDAD_INMUEBLE</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>CLAUSULA DE ACTUALIZACIÓ DEL CRÉDITO</t>
+          <t>CIUDAD DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>10</v>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
-        <v>10</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>27</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="J3" t="n">
+        <v>27</v>
       </c>
       <c r="K3" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" t="b">
         <v>1</v>
       </c>
     </row>
@@ -582,43 +589,48 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>df046</t>
+          <t>df041</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>CLAUSULA_CONSTITUCION_HIPOTECA</t>
+          <t>CLAUSULA_ACTUALIZACION_CREDITO</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>CLAUSULA DE CONSTITUCIÓN DE HIPOTECA</t>
+          <t>CLAUSULA DE ACTUALIZACIÓ DEL CRÉDITO</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>VIGESIMA TERCERA</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>19</v>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VIGESIMA TERCERA</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
-        <v>19</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="J4" t="n">
+        <v>10</v>
       </c>
       <c r="K4" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" t="b">
         <v>1</v>
       </c>
     </row>
@@ -627,43 +639,48 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>df050</t>
+          <t>df046</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>CLAUSULA_JURISDICCION_COMPETENCIA</t>
+          <t>CLAUSULA_CONSTITUCION_HIPOTECA</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>CLAUSULA DE JURISDICCIÓN Y/O COMPETENCIA</t>
+          <t>CLAUSULA DE CONSTITUCIÓN DE HIPOTECA</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>VIGESIMA QUINTA</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>20</v>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VIGESIMA QUINTA</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
-        <v>20</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>VIGESIMA TERCERA</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>19</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>VIGESIMA TERCERA</t>
+        </is>
+      </c>
+      <c r="J5" t="n">
+        <v>19</v>
       </c>
       <c r="K5" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" t="b">
         <v>1</v>
       </c>
     </row>
@@ -672,43 +689,48 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>df043</t>
+          <t>df050</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>CLAUSULA_PRORROGA</t>
+          <t>CLAUSULA_JURISDICCION_COMPETENCIA</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>CLAUSULA DE PRORROGA</t>
+          <t>CLAUSULA DE JURISDICCIÓN Y/O COMPETENCIA</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>DECIMA SEGUNDA</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>14</v>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>DECIMA SEGUNDA</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
-        <v>14</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>VIGESIMA QUINTA</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>20</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>VIGESIMA QUINTA</t>
+        </is>
+      </c>
+      <c r="J6" t="n">
+        <v>20</v>
       </c>
       <c r="K6" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" t="b">
         <v>1</v>
       </c>
     </row>
@@ -717,43 +739,48 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>df044</t>
+          <t>df043</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>CLAUSULA_VENCIMIENTO_ANTICIPADO</t>
+          <t>CLAUSULA_PRORROGA</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>CLAUSULA DE VENCIMIENTO ANTICIPADO</t>
+          <t>CLAUSULA DE PRORROGA</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>VIGESIMA</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>17</v>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VIGESIMA</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
-        <v>17</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>DECIMA SEGUNDA</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>14</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>DECIMA SEGUNDA</t>
+        </is>
+      </c>
+      <c r="J7" t="n">
+        <v>14</v>
       </c>
       <c r="K7" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" t="b">
         <v>1</v>
       </c>
     </row>
@@ -762,43 +789,48 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>df029</t>
+          <t>df044</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>CLAUSULA_INT_ORD</t>
+          <t>CLAUSULA_VENCIMIENTO_ANTICIPADO</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>CLAUSULA INT ORD</t>
+          <t>CLAUSULA DE VENCIMIENTO ANTICIPADO</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>13</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>NOVENA</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>13</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>VIGESIMA</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>17</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>VIGESIMA</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>17</v>
       </c>
       <c r="K8" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" t="b">
         <v>1</v>
       </c>
     </row>
@@ -807,43 +839,48 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>df040</t>
+          <t>df029</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>CLAUSULA_PLAZO</t>
+          <t>CLAUSULA_INT_ORD</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>CLAÚSULA DE PLAZO</t>
+          <t>CLAUSULA INT ORD</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>SEXTA</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>11</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>SEXTA</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>12</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>13</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>NOVENA</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>13</v>
       </c>
       <c r="K9" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" t="b">
         <v>1</v>
       </c>
     </row>
@@ -852,43 +889,48 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>df026</t>
+          <t>df040</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>CREDITO_PESOS</t>
+          <t>CLAUSULA_PLAZO</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>CRÉDITO OTORGADO EN PESOS</t>
+          <t>CLAÚSULA DE PLAZO</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>10</v>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
-        <v>10</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>SEXTA</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>11</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>SEXTA</t>
+        </is>
+      </c>
+      <c r="J10" t="n">
+        <v>12</v>
       </c>
       <c r="K10" t="b">
+        <v>1</v>
+      </c>
+      <c r="L10" t="b">
         <v>1</v>
       </c>
     </row>
@@ -897,44 +939,49 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>df054</t>
+          <t>df025</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>FOLIO_REAL</t>
+          <t>CONDICIONES _CREDITO</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>DATO DE REGISTRO O FOLIO REAL (COMPRAVENTA)</t>
+          <t>CONDICIONES CRÉDITO OTORGADO</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>5</v>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
-        <v>25</v>
-      </c>
-      <c r="J11" t="b">
-        <v>0</v>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>VSM</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>VSM</t>
+        </is>
+      </c>
+      <c r="J11" t="n">
+        <v>1</v>
       </c>
       <c r="K11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L11" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -942,44 +989,41 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>105</v>
+        <v>18</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>df105</t>
+          <t>df018</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>DESCRIPCION_INMUEBLE</t>
+          <t>CORREO_TRIBUNAL_VIRTUAL</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>DESCRIPCION DEL INMUEBLE</t>
+          <t>CORREO DEL TRIBUNAL VIRTUAL</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5</v>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
-        <v>5</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="n">
+        <v>-1</v>
       </c>
       <c r="K12" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L12" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -987,44 +1031,49 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>df053</t>
+          <t>df026</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>DISTRITO_RPP</t>
+          <t>CREDITO_PESOS</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>DISTRITO DEL RPP</t>
+          <t>CRÉDITO OTORGADO EN PESOS</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>CHIHUAHUA,</t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>5</v>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CHIHUAHUA, CHIH</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
-        <v>62</v>
-      </c>
-      <c r="J13" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)</t>
+        </is>
+      </c>
+      <c r="J13" t="n">
+        <v>10</v>
       </c>
       <c r="K13" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L13" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -1032,44 +1081,41 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>48</v>
+        <v>17</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>df048</t>
+          <t>df017</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>DOMICILIO_GARANTIA</t>
+          <t>CUENTA_TRIBUNAL_VIRTUAL</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>DOMICILIO GARANTIA</t>
+          <t>CUENTA DEL TRIBUNAL VIRTUAL</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>5</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
-        <v>5</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="n">
+        <v>-1</v>
       </c>
       <c r="K14" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L14" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1077,43 +1123,48 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>df107</t>
+          <t>df103</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>ESTADO_INMUEBLE</t>
+          <t>CURP_ACREDITADO</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>ESTADO DEL INMUEBLE</t>
+          <t>CURP ACREDITADO</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>27</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CHIHUAHUA</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
-        <v>27</v>
-      </c>
-      <c r="J15" t="b">
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>OIRF790826HCHLML</t>
+        </is>
+      </c>
+      <c r="J15" t="n">
         <v>1</v>
       </c>
       <c r="K15" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1122,35 +1173,40 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>df055</t>
+          <t>df007</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t xml:space="preserve">FECHA_FOLIO_REAL </t>
+          <t>CEDULA_PROFESIONAL_APODERADO</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>FECHA DATO DE REGISTRO O FOLIO REAL  (COMPRAVENTA)</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr"/>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="inlineStr"/>
-      <c r="I16" t="n">
+          <t>CÉDULA PROFESIONAL DEL APODERADO</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="n">
         <v>-1</v>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
       <c r="K16" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1159,44 +1215,49 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>df021</t>
+          <t>df054</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>FECHA_ESCRITURA</t>
+          <t>FOLIO_REAL</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>FECHA DE ESCRITURA</t>
+          <t>DATO DE REGISTRO O FOLIO REAL (COMPRAVENTA)</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO</t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>4</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
-        <v>4</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>5</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J17" t="n">
+        <v>25</v>
       </c>
       <c r="K17" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L17" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1204,43 +1265,48 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>df023</t>
+          <t>df001</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>JURISDICCION_NOTARIO</t>
+          <t>DELEGACION</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>JURISDICCION DEL NOTARIO</t>
+          <t>DELEGACION</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>CHIHUAHUA, CHIHUAHUA</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>4</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>CHIHUAHUA, CHIHUAHUA</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>4</v>
-      </c>
-      <c r="J18" t="b">
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="J18" t="n">
         <v>1</v>
       </c>
       <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1249,43 +1315,48 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>49</v>
+        <v>105</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>df049</t>
+          <t>df105</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>JURISDICCION_SOMETIMIENTO_EXPRESO</t>
+          <t>DESCRIPCION_INMUEBLE</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>JURISDICCIÓN (SOMETIMIENTO EXPRESO)</t>
+          <t>DESCRIPCION DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>DISTRITO FEDERAL</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>20</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>DISTRITO FEDERAL</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
-        <v>20</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
+        </is>
+      </c>
+      <c r="J19" t="n">
+        <v>5</v>
       </c>
       <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1294,44 +1365,49 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>109</v>
+        <v>53</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>df109</t>
+          <t>df053</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_1</t>
+          <t>DISTRITO_RPP</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 1</t>
+          <t>DISTRITO DEL RPP</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA,</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>5</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA, CHIH</t>
+        </is>
+      </c>
+      <c r="J20" t="n">
+        <v>62</v>
       </c>
       <c r="K20" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L20" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1339,43 +1415,48 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>110</v>
+        <v>48</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>df110</t>
+          <t>df048</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_2</t>
+          <t>DOMICILIO_GARANTIA</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 2</t>
+          <t>DOMICILIO GARANTIA</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
         <v>5</v>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE</t>
+        </is>
+      </c>
+      <c r="J21" t="n">
         <v>5</v>
       </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
       <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1384,44 +1465,41 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>111</v>
+        <v>5</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>df111</t>
+          <t>df005</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_3</t>
+          <t>DOMICILIO_RECIBIR_NOTIFICACION</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 3</t>
+          <t>DOMICILIO PARA OIR Y RECIBIR NOTIFICACION</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>5</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>5</v>
-      </c>
-      <c r="J22" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="n">
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="n">
+        <v>-1</v>
       </c>
       <c r="K22" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L22" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1429,44 +1507,41 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>112</v>
+        <v>19</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>df112</t>
+          <t>df019</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>COLINDANCIAS_4</t>
+          <t>ENTRE_CALLES</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>MEDIDAS Y COLINDANCIAS 4</t>
+          <t>ENTRE CALLES SE ENCUENTRA (CUANDO SE REQUIERA)</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>5</v>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
-        <v>5</v>
-      </c>
-      <c r="J23" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="n">
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="n">
+        <v>-1</v>
       </c>
       <c r="K23" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L23" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1474,44 +1549,49 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>df039</t>
+          <t>df107</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>MENSUALIDADES_CUBRIR</t>
+          <t>ESTADO_INMUEBLE</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>MENSUALIDADES A CUBRIR</t>
+          <t>ESTADO DEL INMUEBLE</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>OCHOCIENTOS SESENTA</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>11</v>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
-        <v>12</v>
-      </c>
-      <c r="J24" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>27</v>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="J24" t="n">
+        <v>27</v>
       </c>
       <c r="K24" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L24" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1519,44 +1599,41 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>24</v>
+        <v>65</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>df024</t>
+          <t>df065</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NOTARIO</t>
+          <t>FECHA_ACTA</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>NOTARIO</t>
+          <t>FECHA ACTA</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>LUIS ARTURO CALDERON TRUEBA</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>4</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>LUIS ARTURO CALDERON TRUEBA</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>4</v>
-      </c>
-      <c r="J25" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="n">
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="n">
+        <v>-1</v>
       </c>
       <c r="K25" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L25" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1564,44 +1641,41 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>df035</t>
+          <t>df055</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_REA</t>
+          <t xml:space="preserve">FECHA_FOLIO_REAL </t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO REA</t>
+          <t>FECHA DATO DE REGISTRO O FOLIO REAL  (COMPRAVENTA)</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>SEPTIMA</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>12</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>SEPTIMA</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>12</v>
-      </c>
-      <c r="J26" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="n">
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="n">
+        <v>-1</v>
       </c>
       <c r="K26" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L26" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1609,44 +1683,41 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>df032</t>
+          <t>df015</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA</t>
+          <t>FECHA_CERTIFICACION</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO ROA</t>
+          <t>FECHA DE CERTIFICACION</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>SEPTIMA</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>12</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>SEPTIMA</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>12</v>
-      </c>
-      <c r="J27" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="n">
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="n">
+        <v>-1</v>
       </c>
       <c r="K27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L27" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1654,44 +1725,49 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>31</v>
+        <v>21</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>df031</t>
+          <t>df021</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NUM_CLAUSULA_INTERES_MORATORIO</t>
+          <t>FECHA_ESCRITURA</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>NUMERO DE CLAUSULA DONDE SE FIJA EL I M</t>
+          <t>FECHA DE ESCRITURA</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>DECIMA</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>13</v>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>DECIMA</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
-        <v>12</v>
-      </c>
-      <c r="J28" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO</t>
+        </is>
+      </c>
+      <c r="J28" t="n">
+        <v>4</v>
       </c>
       <c r="K28" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L28" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="29">
@@ -1699,39 +1775,40 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>df020</t>
+          <t>df009</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NUM_ESCRITURA</t>
+          <t>FECHA_PODER</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t xml:space="preserve">NÚM.  ESCRITURA DE CONTRATO DE APERTURA DE CREDITO </t>
+          <t>FECHA DE PODER</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>25,194 VEINTICINCO MIL CIENTO NOVENTA Y CUATRO</t>
-        </is>
-      </c>
-      <c r="G29" t="n">
-        <v>4</v>
-      </c>
-      <c r="H29" t="inlineStr"/>
-      <c r="I29" t="n">
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="n">
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="n">
         <v>-1</v>
       </c>
-      <c r="J29" t="b">
-        <v>0</v>
-      </c>
       <c r="K29" t="b">
+        <v>0</v>
+      </c>
+      <c r="L29" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1740,43 +1817,48 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>df027</t>
+          <t>df057</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NUM_CLAUSULA_OTORGAMIENTO_CREDITO</t>
+          <t>FECHA_EMISION</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>NÚM. DE CLAUSULA DE OTORGAMIENTO DE CRÉDITO</t>
+          <t>FECHA DEL CA</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="G30" t="n">
-        <v>10</v>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PRIMERA</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
-        <v>10</v>
-      </c>
-      <c r="J30" t="b">
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">25 DE AGOSTO DE 2017 </t>
+        </is>
+      </c>
+      <c r="J30" t="n">
         <v>1</v>
       </c>
       <c r="K30" t="b">
+        <v>0</v>
+      </c>
+      <c r="L30" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1785,44 +1867,41 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>22</v>
+        <v>64</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>df022</t>
+          <t>df064</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>NUM_NOTARIO</t>
+          <t>FECHA_VISITA</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>NÚM. DE NOTARIO</t>
+          <t>FECHA VISITA</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>DIEZ</t>
-        </is>
-      </c>
-      <c r="G31" t="n">
-        <v>4</v>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>DIEZ</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>4</v>
-      </c>
-      <c r="J31" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr"/>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="n">
+        <v>-1</v>
       </c>
       <c r="K31" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L31" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -1830,44 +1909,41 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>df038</t>
+          <t>df066</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>PLAZO_ANIOS</t>
+          <t>JUEZ_EXHORTADO</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>PLAZO (AÑOS)</t>
+          <t>JUEZ EXHORTADO</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>30 TREINTA AÑOS</t>
-        </is>
-      </c>
-      <c r="G32" t="n">
-        <v>11</v>
-      </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>30 TREINTA AÑOS</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>12</v>
-      </c>
-      <c r="J32" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr"/>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="n">
+        <v>-1</v>
       </c>
       <c r="K32" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L32" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -1875,44 +1951,41 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>df036</t>
+          <t>df016</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>REA_VSM</t>
+          <t>JURISDICCIO_NOTARIO _CERTIFICA</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>REA EN VSM</t>
+          <t>JURISDICCIO DE L NOTARIO  QUE CERTIFICA</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO</t>
-        </is>
-      </c>
-      <c r="G33" t="n">
-        <v>12</v>
-      </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>13</v>
-      </c>
-      <c r="J33" t="b">
-        <v>1</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr"/>
+      <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="n">
+        <v>-1</v>
       </c>
       <c r="K33" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L33" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1920,43 +1993,48 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>df033</t>
+          <t>df023</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>PORCENTAJE_ROA</t>
+          <t>JURISDICCION_NOTARIO</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ROA %</t>
+          <t>JURISDICCION DEL NOTARIO</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>20% (VEINTE POR CIENTO)</t>
-        </is>
-      </c>
-      <c r="G34" t="n">
-        <v>12</v>
-      </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>20% (VEINTE POR CIENTO)</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
-        <v>12</v>
-      </c>
-      <c r="J34" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA, CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>CHIHUAHUA, CHIHUAHUA</t>
+        </is>
+      </c>
+      <c r="J34" t="n">
+        <v>4</v>
       </c>
       <c r="K34" t="b">
+        <v>1</v>
+      </c>
+      <c r="L34" t="b">
         <v>1</v>
       </c>
     </row>
@@ -1965,43 +2043,48 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>34</v>
+        <v>49</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>df034</t>
+          <t>df049</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>ROA_VSM</t>
+          <t>JURISDICCION_SOMETIMIENTO_EXPRESO</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ROA EN VSM</t>
+          <t>JURISDICCIÓN (SOMETIMIENTO EXPRESO)</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO</t>
-        </is>
-      </c>
-      <c r="G35" t="n">
-        <v>12</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>12</v>
-      </c>
-      <c r="J35" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>DISTRITO FEDERAL</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>20</v>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>DISTRITO FEDERAL</t>
+        </is>
+      </c>
+      <c r="J35" t="n">
+        <v>20</v>
       </c>
       <c r="K35" t="b">
+        <v>1</v>
+      </c>
+      <c r="L35" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2010,44 +2093,41 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>115</v>
+        <v>11</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>df115</t>
+          <t>df011</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SUPERFICIE_CONSTRUCCION</t>
+          <t>JURISDICION_NOTARIO_EMITE_PODER</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>SUPERFICIE DE CONSTRUCCION</t>
+          <t>JURISDICION DEL NOTARIO QUE EMITE PODER</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="G36" t="n">
-        <v>5</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
-        <v>5</v>
-      </c>
-      <c r="J36" t="b">
-        <v>0</v>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr"/>
+      <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="n">
+        <v>-1</v>
       </c>
       <c r="K36" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L36" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -2055,43 +2135,48 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>df108</t>
+          <t>df109</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>SUPERFICIE_TERRENO</t>
+          <t>COLINDANCIAS_1</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>SUPERFICIE DE TERRENO</t>
+          <t>MEDIDAS Y COLINDANCIAS 1</t>
         </is>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="G37" t="n">
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
         <v>5</v>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO</t>
+        </is>
+      </c>
+      <c r="J37" t="n">
         <v>5</v>
       </c>
-      <c r="J37" t="b">
-        <v>1</v>
-      </c>
       <c r="K37" t="b">
+        <v>1</v>
+      </c>
+      <c r="L37" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2100,44 +2185,49 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>30</v>
+        <v>110</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>df030</t>
+          <t>df110</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>TASA_INTERES_MORATORIO</t>
+          <t>COLINDANCIAS_2</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS MORATORIO</t>
+          <t>MEDIDAS Y COLINDANCIAS 2</t>
         </is>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>9.00% ANUAL FIJO</t>
-        </is>
-      </c>
-      <c r="G38" t="n">
-        <v>49</v>
-      </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>9.00% NUEVE POR CIENTO</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
-        <v>14</v>
-      </c>
-      <c r="J38" t="b">
-        <v>0</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 4 CUATRO</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO</t>
+        </is>
+      </c>
+      <c r="J38" t="n">
+        <v>5</v>
       </c>
       <c r="K38" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="L38" t="b">
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -2145,43 +2235,48 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>28</v>
+        <v>111</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>df028</t>
+          <t>df111</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>TASA_INTERES_ORDINARIO</t>
+          <t>COLINDANCIAS_3</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>TASA DE INTERÉS ORDINARIO</t>
+          <t>MEDIDAS Y COLINDANCIAS 3</t>
         </is>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>9.00% NUEVE PUNTO CERO POR CIENTO</t>
-        </is>
-      </c>
-      <c r="G39" t="n">
-        <v>13</v>
-      </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>9.00% NUEVE PUNTO CERO POR CIENTO</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
-        <v>13</v>
-      </c>
-      <c r="J39" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 2 DOS</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS</t>
+        </is>
+      </c>
+      <c r="J39" t="n">
+        <v>5</v>
       </c>
       <c r="K39" t="b">
+        <v>1</v>
+      </c>
+      <c r="L39" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2190,43 +2285,48 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>42</v>
+        <v>112</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>df042</t>
+          <t>df112</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>TEXTO_ACTUALIZACION</t>
+          <t>COLINDANCIAS_4</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>TEXTO DE ACTUALIZACIÓN</t>
+          <t>MEDIDAS Y COLINDANCIAS 4</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL</t>
-        </is>
-      </c>
-      <c r="G40" t="n">
-        <v>10</v>
-      </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
-        <v>10</v>
-      </c>
-      <c r="J40" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NUMERO 40 CUARENTA</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA</t>
+        </is>
+      </c>
+      <c r="J40" t="n">
+        <v>5</v>
       </c>
       <c r="K40" t="b">
+        <v>1</v>
+      </c>
+      <c r="L40" t="b">
         <v>1</v>
       </c>
     </row>
@@ -2235,44 +2335,49 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>47</v>
+        <v>39</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>df047</t>
+          <t>df039</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>TEXTO_CLAUSULA_HIPOTECA</t>
+          <t>MENSUALIDADES_CUBRIR</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>TEXTO DE CLAUSULA DE HIPOTECA</t>
+          <t>MENSUALIDADES A CUBRIR</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="G41" t="n">
-        <v>19</v>
-      </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
-        <v>19</v>
-      </c>
-      <c r="J41" t="b">
-        <v>1</v>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>OCHOCIENTOS SESENTA</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>11</v>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J41" t="n">
+        <v>12</v>
       </c>
       <c r="K41" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="L41" t="b">
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -2280,44 +2385,1639 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
+        <v>56</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>df056</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>MESES_ADEUDADOS_CERTIFICADO_ADEUDOS</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>MESES ADEUDADOS EN EL CERTIFICADO DE ADEUDOS</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>9</v>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="J42" t="n">
+        <v>9</v>
+      </c>
+      <c r="K42" t="b">
+        <v>1</v>
+      </c>
+      <c r="L42" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>61</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>df061</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>MONTO_PESOS_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>MONTO EN PESOS DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr"/>
+      <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>df060</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>MONTO_VSM_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>MONTO EN VSM DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>5.2000</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>5.2000</t>
+        </is>
+      </c>
+      <c r="J44" t="n">
+        <v>1</v>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>3</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>df003</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>NOMBRE_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>NOMBRE DEL ACREDITADO</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>OLIVAS RAMIREZ FELIPE DE JESUS</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>OLIVAS RAMIREZ FELIPE DE JESUS</t>
+        </is>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>24</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>df024</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>NOTARIO</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>NOTARIO</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>LUIS ARTURO CALDERON TRUEBA</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>LUIS ARTURO CALDERON TRUEBA</t>
+        </is>
+      </c>
+      <c r="J46" t="n">
+        <v>4</v>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>13</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>df013</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NOTARIO_CERTIFICA</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>NOTARIO QUE CERTIFICA</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr"/>
+      <c r="H47" t="n">
+        <v>0</v>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K47" t="b">
+        <v>0</v>
+      </c>
+      <c r="L47" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>10</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>df010</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>NOTARIO_EMITE_PODER</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>NOTARIO QUE EMITE EL PODER</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr"/>
+      <c r="H48" t="n">
+        <v>0</v>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K48" t="b">
+        <v>0</v>
+      </c>
+      <c r="L48" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>2</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>df002</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>NUMERO_CREDITO</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>NUMERO CRÉDITO</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>1</v>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>805117974</t>
+        </is>
+      </c>
+      <c r="J49" t="n">
+        <v>1</v>
+      </c>
+      <c r="K49" t="b">
+        <v>0</v>
+      </c>
+      <c r="L49" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>35</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>df035</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_REA</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO REA</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>SEPTIMA</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>12</v>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>SEPTIMA</t>
+        </is>
+      </c>
+      <c r="J50" t="n">
+        <v>12</v>
+      </c>
+      <c r="K50" t="b">
+        <v>1</v>
+      </c>
+      <c r="L50" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>32</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>df032</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DE DESCUENTO DEL SALARIO ROA</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>SEPTIMA</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>12</v>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>SEPTIMA</t>
+        </is>
+      </c>
+      <c r="J51" t="n">
+        <v>12</v>
+      </c>
+      <c r="K51" t="b">
+        <v>1</v>
+      </c>
+      <c r="L51" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="n">
+        <v>31</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>df031</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NUM_CLAUSULA_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>NUMERO DE CLAUSULA DONDE SE FIJA EL I M</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>DECIMA</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>13</v>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>DECIMA</t>
+        </is>
+      </c>
+      <c r="J52" t="n">
+        <v>12</v>
+      </c>
+      <c r="K52" t="b">
+        <v>1</v>
+      </c>
+      <c r="L52" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="n">
+        <v>62</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>df062</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NUMERO_HOJAS_CA</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>NUMERO DE HOJAS DEL CA</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>1</v>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J53" t="n">
+        <v>1</v>
+      </c>
+      <c r="K53" t="b">
+        <v>1</v>
+      </c>
+      <c r="L53" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="n">
+        <v>12</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>df012</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>NUMERO_NOTARIO</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>NUMERO DE NOTARIO</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr"/>
+      <c r="H54" t="n">
+        <v>0</v>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K54" t="b">
+        <v>0</v>
+      </c>
+      <c r="L54" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="n">
+        <v>14</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>df014</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NUMERO_NOTARIO_CERTIFICA</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>NUMERO DE NOTARIO QUE CERTIFICA</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr"/>
+      <c r="H55" t="n">
+        <v>0</v>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K55" t="b">
+        <v>0</v>
+      </c>
+      <c r="L55" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="n">
+        <v>8</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>df008</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>NUMERO_APODER</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>NUMERO DE PODER</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>ner-general</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr"/>
+      <c r="H56" t="n">
+        <v>0</v>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="b">
+        <v>0</v>
+      </c>
+      <c r="L56" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="n">
+        <v>20</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>df020</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NUM_ESCRITURA</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">NÚM.  ESCRITURA DE CONTRATO DE APERTURA DE CREDITO </t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>25,194 VEINTICINCO MIL CIENTO NOVENTA Y CUATRO</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K57" t="b">
+        <v>0</v>
+      </c>
+      <c r="L57" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="n">
+        <v>27</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>df027</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>NUM_CLAUSULA_OTORGAMIENTO_CREDITO</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>NÚM. DE CLAUSULA DE OTORGAMIENTO DE CRÉDITO</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>PRIMERA</t>
+        </is>
+      </c>
+      <c r="J58" t="n">
+        <v>10</v>
+      </c>
+      <c r="K58" t="b">
+        <v>1</v>
+      </c>
+      <c r="L58" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="n">
+        <v>22</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>df022</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NUM_NOTARIO</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>NÚM. DE NOTARIO</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>DIEZ</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>4</v>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>DIEZ</t>
+        </is>
+      </c>
+      <c r="J59" t="n">
+        <v>4</v>
+      </c>
+      <c r="K59" t="b">
+        <v>1</v>
+      </c>
+      <c r="L59" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="n">
+        <v>38</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>df038</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>PLAZO_ANIOS</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>PLAZO (AÑOS)</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>30 TREINTA AÑOS</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>11</v>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>30 TREINTA AÑOS</t>
+        </is>
+      </c>
+      <c r="J60" t="n">
+        <v>12</v>
+      </c>
+      <c r="K60" t="b">
+        <v>1</v>
+      </c>
+      <c r="L60" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="n">
+        <v>63</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>df063</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>PRORROGAS_APLICADAS</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>PRORROGAS APLICADAS</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>01/08/2015,31/07/2016</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>1</v>
+      </c>
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J61" t="n">
+        <v>1</v>
+      </c>
+      <c r="K61" t="b">
+        <v>0</v>
+      </c>
+      <c r="L61" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="n">
+        <v>36</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>df036</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>REA_VSM</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>REA EN VSM</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>12</v>
+      </c>
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO</t>
+        </is>
+      </c>
+      <c r="J62" t="n">
+        <v>13</v>
+      </c>
+      <c r="K62" t="b">
+        <v>1</v>
+      </c>
+      <c r="L62" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="n">
+        <v>102</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>df102</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>RFC_ACREDITADO</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>RFC DEL ACREDITADO</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>FACULTADES</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>OIRF790828152</t>
+        </is>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="b">
+        <v>0</v>
+      </c>
+      <c r="L63" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="n">
+        <v>33</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>df033</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>PORCENTAJE_ROA</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>ROA %</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>20% (VEINTE POR CIENTO)</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>12</v>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>20% (VEINTE POR CIENTO)</t>
+        </is>
+      </c>
+      <c r="J64" t="n">
+        <v>12</v>
+      </c>
+      <c r="K64" t="b">
+        <v>1</v>
+      </c>
+      <c r="L64" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="n">
+        <v>34</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>df034</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>ROA_VSM</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>ROA EN VSM</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>12</v>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO</t>
+        </is>
+      </c>
+      <c r="J65" t="n">
+        <v>12</v>
+      </c>
+      <c r="K65" t="b">
+        <v>1</v>
+      </c>
+      <c r="L65" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="n">
+        <v>59</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>df059</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>SALDO_PESOS</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>SALDO QUE SE REQUIERE EN PESOS</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr"/>
+      <c r="H66" t="n">
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J66" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K66" t="b">
+        <v>0</v>
+      </c>
+      <c r="L66" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="n">
+        <v>58</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>df058</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>SUERTE_PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>SUERTE PRINCIPAL</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>ner-certificado</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>114.9030</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>114.9030</t>
+        </is>
+      </c>
+      <c r="J67" t="n">
+        <v>1</v>
+      </c>
+      <c r="K67" t="b">
+        <v>1</v>
+      </c>
+      <c r="L67" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="n">
+        <v>115</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>df115</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>SUPERFICIE_CONSTRUCCION</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>SUPERFICIE DE CONSTRUCCION</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="J68" t="n">
+        <v>5</v>
+      </c>
+      <c r="K68" t="b">
+        <v>0</v>
+      </c>
+      <c r="L68" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="n">
+        <v>108</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>df108</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>SUPERFICIE_TERRENO</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>SUPERFICIE DE TERRENO</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>5</v>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS</t>
+        </is>
+      </c>
+      <c r="J69" t="n">
+        <v>5</v>
+      </c>
+      <c r="K69" t="b">
+        <v>1</v>
+      </c>
+      <c r="L69" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="n">
+        <v>30</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>df030</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_MORATORIO</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS MORATORIO</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>9.00% ANUAL FIJO</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>49</v>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>9.00% NUEVE POR CIENTO</t>
+        </is>
+      </c>
+      <c r="J70" t="n">
+        <v>14</v>
+      </c>
+      <c r="K70" t="b">
+        <v>0</v>
+      </c>
+      <c r="L70" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="n">
+        <v>28</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>df028</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>TASA_INTERES_ORDINARIO</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>TASA DE INTERÉS ORDINARIO</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>9.00% NUEVE PUNTO CERO POR CIENTO</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>13</v>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>9.00% NUEVE PUNTO CERO POR CIENTO</t>
+        </is>
+      </c>
+      <c r="J71" t="n">
+        <v>13</v>
+      </c>
+      <c r="K71" t="b">
+        <v>1</v>
+      </c>
+      <c r="L71" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="n">
+        <v>42</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>df042</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>TEXTO_ACTUALIZACION</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>TEXTO DE ACTUALIZACIÓN</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL</t>
+        </is>
+      </c>
+      <c r="J72" t="n">
+        <v>10</v>
+      </c>
+      <c r="K72" t="b">
+        <v>1</v>
+      </c>
+      <c r="L72" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="n">
+        <v>47</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>df047</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>TEXTO_CLAUSULA_HIPOTECA</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>TEXTO DE CLAUSULA DE HIPOTECA</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>19</v>
+      </c>
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA</t>
+        </is>
+      </c>
+      <c r="J73" t="n">
+        <v>19</v>
+      </c>
+      <c r="K73" t="b">
+        <v>1</v>
+      </c>
+      <c r="L73" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="n">
         <v>104</v>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="C74" t="inlineStr">
         <is>
           <t>df104</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>TIPO_INMUEBLE</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>TIPO DE INMUEBLE</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>ner-escritura</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
         <is>
           <t>CASA HABITACION</t>
         </is>
       </c>
-      <c r="G42" t="n">
+      <c r="H74" t="n">
         <v>27</v>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="I74" t="inlineStr">
         <is>
           <t>CASA HABITACION</t>
         </is>
       </c>
-      <c r="I42" t="n">
+      <c r="J74" t="n">
         <v>27</v>
       </c>
-      <c r="J42" t="b">
-        <v>1</v>
-      </c>
-      <c r="K42" t="b">
-        <v>1</v>
+      <c r="K74" t="b">
+        <v>1</v>
+      </c>
+      <c r="L74" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="n">
+        <v>124</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>df124</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>VALOR_OPERACION</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>VALOR DE LA OPERACION (VALOR DEL AVALUO DE ADJUDICACION)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>avaluo_adjudicacion</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr"/>
+      <c r="H75" t="n">
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="b">
+        <v>0</v>
+      </c>
+      <c r="L75" t="b">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2363,7 +4063,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
@@ -2373,7 +4073,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -2383,7 +4083,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.918918918918919</v>
+        <v>0.8541666666666666</v>
       </c>
     </row>
     <row r="6">
@@ -2393,7 +4093,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>34</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
@@ -2413,7 +4113,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.918918918918919</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="9">
@@ -2424,7 +4124,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'CIUDAD_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'VIGESIMA TERCERA', 'valor_real': 'VIGESIMA TERCERA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'VIGESIMA QUINTA', 'valor_real': 'VIGESIMA QUINTA', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA SEGUNDA', 'valor_real': 'DECIMA SEGUNDA', 'pagina_encontrado': 14, 'pagina_real': 14, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA', 'valor_real': 'VIGESIMA', 'pagina_encontrado': 17, 'pagina_real': 17, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'SEXTA', 'valor_real': 'SEXTA', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CREDITO_PESOS': {'valor_encontrado': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'valor_real': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DISTRITO_RPP': {'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH', 'pagina_encontrado': 5, 'pagina_real': 62, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_ESCRITURA': {'valor_encontrado': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'valor_real': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'CHIHUAHUA, CHIHUAHUA', 'valor_real': 'CHIHUAHUA, CHIHUAHUA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL', 'valor_real': 'DISTRITO FEDERAL', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'valor_real': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO', 'valor_real': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS', 'valor_real': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA', 'valor_real': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOTARIO': {'valor_encontrado': 'LUIS ARTURO CALDERON TRUEBA', 'valor_real': 'LUIS ARTURO CALDERON TRUEBA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 13, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': 'DIEZ', 'valor_real': 'DIEZ', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': '30 TREINTA AÑOS', 'valor_real': '30 TREINTA AÑOS', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'REA_VSM': {'valor_encontrado': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'valor_real': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'valor_real': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO', 'pagina_encontrado': 49, 'pagina_real': 14, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.00% NUEVE PUNTO CERO POR CIENTO', 'valor_real': '9.00% NUEVE PUNTO CERO POR CIENTO', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'valor_real': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA HABITACION', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}}</t>
+          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'porcentaje_paginas_correctas': 0.918918918918919, 'CIUDAD_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'VIGESIMA TERCERA', 'valor_real': 'VIGESIMA TERCERA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'VIGESIMA QUINTA', 'valor_real': 'VIGESIMA QUINTA', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA SEGUNDA', 'valor_real': 'DECIMA SEGUNDA', 'pagina_encontrado': 14, 'pagina_real': 14, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA', 'valor_real': 'VIGESIMA', 'pagina_encontrado': 17, 'pagina_real': 17, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'SEXTA', 'valor_real': 'SEXTA', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CREDITO_PESOS': {'valor_encontrado': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'valor_real': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DISTRITO_RPP': {'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH', 'pagina_encontrado': 5, 'pagina_real': 62, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_ESCRITURA': {'valor_encontrado': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'valor_real': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'CHIHUAHUA, CHIHUAHUA', 'valor_real': 'CHIHUAHUA, CHIHUAHUA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL', 'valor_real': 'DISTRITO FEDERAL', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'valor_real': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 4 CUATRO', 'valor_real': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 2 DOS', 'valor_real': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NUMERO 40 CUARENTA', 'valor_real': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOTARIO': {'valor_encontrado': 'LUIS ARTURO CALDERON TRUEBA', 'valor_real': 'LUIS ARTURO CALDERON TRUEBA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 13, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': 'DIEZ', 'valor_real': 'DIEZ', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': '30 TREINTA AÑOS', 'valor_real': '30 TREINTA AÑOS', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'REA_VSM': {'valor_encontrado': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'valor_real': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'valor_real': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO', 'pagina_encontrado': 49, 'pagina_real': 14, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.00% NUEVE PUNTO CERO POR CIENTO', 'valor_real': '9.00% NUEVE PUNTO CERO POR CIENTO', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'valor_real': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA HABITACION', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'valor_encontrado': 'VSM', 'valor_real': 'VSM', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CURP_ACREDITADO': {'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'DELEGACION': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_EMISION': {'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 ', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'valor_encontrado': '5', 'valor_real': '5', 'pagina_encontrado': 9, 'pagina_real': 9, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MONTO_VSM_INTERES_MORATORIO': {'valor_encontrado': '5.2000', 'valor_real': '5.2000', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOMBRE_ACREDITADO': {'valor_encontrado': 'OLIVAS RAMIREZ FELIPE DE JESUS', 'valor_real': 'OLIVAS RAMIREZ FELIPE DE JESUS', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_CREDITO': {'valor_encontrado': ' ', 'valor_real': '805117974', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUMERO_HOJAS_CA': {'valor_encontrado': '9', 'valor_real': '9', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'RFC_ACREDITADO': {'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUERTE_PRINCIPAL': {'valor_encontrado': '114.9030', 'valor_real': '114.9030', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/805117974.xlsx
+++ b/app/results/reviewed/805117974.xlsx
@@ -4031,7 +4031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4047,84 +4047,72 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>num_credito</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>805117974</t>
-        </is>
+          <t>entidades_correctas</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>41</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>entidades_correctas</t>
+          <t>entidades_incorrectas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>41</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>entidades_incorrectas</t>
+          <t>porcentaje_entidades_correctas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>7</v>
+        <v>0.8541666666666666</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_entidades_correctas</t>
+          <t>paginas_correctas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.8541666666666666</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>paginas_correctas</t>
+          <t>paginas_incorrectas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>45</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>paginas_incorrectas</t>
+          <t>porcentaje_paginas_correctas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3</v>
+        <v>0.9375</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_paginas_correctas</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0.9375</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="inlineStr">
-        <is>
           <t>entidades</t>
         </is>
       </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'porcentaje_paginas_correctas': 0.918918918918919, 'CIUDAD_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'valor_encontrado': 'VIGESIMA TERCERA', 'valor_real': 'VIGESIMA TERCERA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'valor_encontrado': 'VIGESIMA QUINTA', 'valor_real': 'VIGESIMA QUINTA', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PRORROGA': {'valor_encontrado': 'DECIMA SEGUNDA', 'valor_real': 'DECIMA SEGUNDA', 'pagina_encontrado': 14, 'pagina_real': 14, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'valor_encontrado': 'VIGESIMA', 'valor_real': 'VIGESIMA', 'pagina_encontrado': 17, 'pagina_real': 17, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_INT_ORD': {'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CLAUSULA_PLAZO': {'valor_encontrado': 'SEXTA', 'valor_real': 'SEXTA', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CREDITO_PESOS': {'valor_encontrado': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'valor_real': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DESCRIPCION_INMUEBLE': {'valor_encontrado': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'DISTRITO_RPP': {'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH', 'pagina_encontrado': 5, 'pagina_real': 62, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'DOMICILIO_GARANTIA': {'valor_encontrado': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ESTADO_INMUEBLE': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_ESCRITURA': {'valor_encontrado': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'valor_real': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_NOTARIO': {'valor_encontrado': 'CHIHUAHUA, CHIHUAHUA', 'valor_real': 'CHIHUAHUA, CHIHUAHUA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'valor_encontrado': 'DISTRITO FEDERAL', 'valor_real': 'DISTRITO FEDERAL', 'pagina_encontrado': 20, 'pagina_real': 20, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_1': {'valor_encontrado': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'valor_real': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_2': {'valor_encontrado': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 4 CUATRO', 'valor_real': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_3': {'valor_encontrado': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 2 DOS', 'valor_real': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'COLINDANCIAS_4': {'valor_encontrado': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NUMERO 40 CUARENTA', 'valor_real': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOTARIO': {'valor_encontrado': 'LUIS ARTURO CALDERON TRUEBA', 'valor_real': 'LUIS ARTURO CALDERON TRUEBA', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA', 'pagina_encontrado': 13, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': False}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUM_NOTARIO': {'valor_encontrado': 'DIEZ', 'valor_real': 'DIEZ', 'pagina_encontrado': 4, 'pagina_real': 4, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PLAZO_ANIOS': {'valor_encontrado': '30 TREINTA AÑOS', 'valor_real': '30 TREINTA AÑOS', 'pagina_encontrado': 11, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'REA_VSM': {'valor_encontrado': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'valor_real': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'PORCENTAJE_ROA': {'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'ROA_VSM': {'valor_encontrado': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'valor_real': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'pagina_encontrado': 12, 'pagina_real': 12, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'SUPERFICIE_CONSTRUCCION': {'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUPERFICIE_TERRENO': {'valor_encontrado': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'pagina_encontrado': 5, 'pagina_real': 5, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TASA_INTERES_MORATORIO': {'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO', 'pagina_encontrado': 49, 'pagina_real': 14, 'texto_es_correcto': False, 'pagina_es_correcta': False}, 'TASA_INTERES_ORDINARIO': {'valor_encontrado': '9.00% NUEVE PUNTO CERO POR CIENTO', 'valor_real': '9.00% NUEVE PUNTO CERO POR CIENTO', 'pagina_encontrado': 13, 'pagina_real': 13, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_ACTUALIZACION': {'valor_encontrado': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'valor_real': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'pagina_encontrado': 10, 'pagina_real': 10, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TEXTO_CLAUSULA_HIPOTECA': {'valor_encontrado': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'pagina_encontrado': 19, 'pagina_real': 19, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'TIPO_INMUEBLE': {'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA HABITACION', 'pagina_encontrado': 27, 'pagina_real': 27, 'texto_es_correcto': True, 'pagina_es_correcta': True}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'valor_encontrado': 'VSM', 'valor_real': 'VSM', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'CURP_ACREDITADO': {'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'DELEGACION': {'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'FECHA_EMISION': {'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 ', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'valor_encontrado': '5', 'valor_real': '5', 'pagina_encontrado': 9, 'pagina_real': 9, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'MONTO_VSM_INTERES_MORATORIO': {'valor_encontrado': '5.2000', 'valor_real': '5.2000', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NOMBRE_ACREDITADO': {'valor_encontrado': 'OLIVAS RAMIREZ FELIPE DE JESUS', 'valor_real': 'OLIVAS RAMIREZ FELIPE DE JESUS', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'NUMERO_CREDITO': {'valor_encontrado': ' ', 'valor_real': '805117974', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'NUMERO_HOJAS_CA': {'valor_encontrado': '9', 'valor_real': '9', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}, 'RFC_ACREDITADO': {'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': False, 'pagina_es_correcta': True}, 'SUERTE_PRINCIPAL': {'valor_encontrado': '114.9030', 'valor_real': '114.9030', 'pagina_encontrado': 1, 'pagina_real': 1, 'texto_es_correcto': True, 'pagina_es_correcta': True}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'porcentaje_paginas_correctas': 1}}</t>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_paginas_correctas': 0.918918918918919, 'DISTRITO_RPP': {'pagina_encontrado': 5, 'pagina_es_correcta': False, 'pagina_real': 62, 'texto_es_correcto': False, 'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': False, 'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 49, 'pagina_es_correcta': False, 'pagina_real': 14, 'texto_es_correcto': False, 'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO'}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 '}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '805117974'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/805117974.xlsx
+++ b/app/results/reviewed/805117974.xlsx
@@ -4031,7 +4031,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4047,72 +4047,82 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>entidades_correctas</t>
+          <t>id_credito_testeado</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>41</v>
+        <v>169</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>entidades_incorrectas</t>
+          <t>entidades_correctas</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>7</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_entidades_correctas</t>
+          <t>entidades_incorrectas</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.8541666666666666</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>paginas_correctas</t>
+          <t>porcentaje_entidades_correctas</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>45</v>
+        <v>0.8541666666666666</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>paginas_incorrectas</t>
+          <t>paginas_correctas</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>porcentaje_paginas_correctas</t>
+          <t>paginas_incorrectas</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9375</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
+          <t>porcentaje_paginas_correctas</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.9375</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
           <t>entidades</t>
         </is>
       </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_paginas_correctas': 0.918918918918919, 'DISTRITO_RPP': {'pagina_encontrado': 5, 'pagina_es_correcta': False, 'pagina_real': 62, 'texto_es_correcto': False, 'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': False, 'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 49, 'pagina_es_correcta': False, 'pagina_real': 14, 'texto_es_correcto': False, 'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO'}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 '}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '805117974'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_paginas_correctas': 0.918918918918919, 'CIUDAD_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA'}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'pagina_encontrado': 19, 'pagina_es_correcta': True, 'pagina_real': 19, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA TERCERA', 'valor_real': 'VIGESIMA TERCERA'}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'pagina_encontrado': 20, 'pagina_es_correcta': True, 'pagina_real': 20, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA QUINTA', 'valor_real': 'VIGESIMA QUINTA'}, 'CLAUSULA_PRORROGA': {'pagina_encontrado': 14, 'pagina_es_correcta': True, 'pagina_real': 14, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA SEGUNDA', 'valor_real': 'DECIMA SEGUNDA'}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'pagina_encontrado': 17, 'pagina_es_correcta': True, 'pagina_real': 17, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA', 'valor_real': 'VIGESIMA'}, 'CLAUSULA_INT_ORD': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA'}, 'CLAUSULA_PLAZO': {'pagina_encontrado': 11, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEXTA', 'valor_real': 'SEXTA'}, 'CREDITO_PESOS': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'valor_real': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)'}, 'DESCRIPCION_INMUEBLE': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE'}, 'DISTRITO_RPP': {'pagina_encontrado': 5, 'pagina_es_correcta': False, 'pagina_real': 62, 'texto_es_correcto': False, 'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH'}, 'DOMICILIO_GARANTIA': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE'}, 'ESTADO_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'FECHA_ESCRITURA': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'valor_real': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO'}, 'JURISDICCION_NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA, CHIHUAHUA', 'valor_real': 'CHIHUAHUA, CHIHUAHUA'}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'pagina_encontrado': 20, 'pagina_es_correcta': True, 'pagina_real': 20, 'texto_es_correcto': True, 'valor_encontrado': 'DISTRITO FEDERAL', 'valor_real': 'DISTRITO FEDERAL'}, 'COLINDANCIAS_1': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'valor_real': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO'}, 'COLINDANCIAS_2': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 4 CUATRO', 'valor_real': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO'}, 'COLINDANCIAS_3': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 2 DOS', 'valor_real': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS'}, 'COLINDANCIAS_4': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NUMERO 40 CUARENTA', 'valor_real': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA'}, 'NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'LUIS ARTURO CALDERON TRUEBA', 'valor_real': 'LUIS ARTURO CALDERON TRUEBA'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA'}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'pagina_encontrado': 13, 'pagina_es_correcta': False, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA'}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA'}, 'NUM_NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'DIEZ', 'valor_real': 'DIEZ'}, 'PLAZO_ANIOS': {'pagina_encontrado': 11, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '30 TREINTA AÑOS', 'valor_real': '30 TREINTA AÑOS'}, 'REA_VSM': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'valor_real': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO'}, 'PORCENTAJE_ROA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)'}, 'ROA_VSM': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'valor_real': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': False, 'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'SUPERFICIE_TERRENO': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 49, 'pagina_es_correcta': False, 'pagina_real': 14, 'texto_es_correcto': False, 'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO'}, 'TASA_INTERES_ORDINARIO': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': '9.00% NUEVE PUNTO CERO POR CIENTO', 'valor_real': '9.00% NUEVE PUNTO CERO POR CIENTO'}, 'TEXTO_ACTUALIZACION': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'valor_real': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL'}, 'TEXTO_CLAUSULA_HIPOTECA': {'pagina_encontrado': 19, 'pagina_es_correcta': True, 'pagina_real': 19, 'texto_es_correcto': True, 'valor_encontrado': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA'}, 'TIPO_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA HABITACION'}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'VSM', 'valor_real': 'VSM'}, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML'}, 'DELEGACION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 '}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'pagina_encontrado': 9, 'pagina_es_correcta': True, 'pagina_real': 9, 'texto_es_correcto': True, 'valor_encontrado': '5', 'valor_real': '5'}, 'MONTO_VSM_INTERES_MORATORIO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '5.2000', 'valor_real': '5.2000'}, 'NOMBRE_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'OLIVAS RAMIREZ FELIPE DE JESUS', 'valor_real': 'OLIVAS RAMIREZ FELIPE DE JESUS'}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '805117974'}, 'NUMERO_HOJAS_CA': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '9', 'valor_real': '9'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152'}, 'SUERTE_PRINCIPAL': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '114.9030', 'valor_real': '114.9030'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/805117974.xlsx
+++ b/app/results/reviewed/805117974.xlsx
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>169</v>
+        <v>180</v>
       </c>
     </row>
     <row r="3">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_paginas_correctas': 0.918918918918919, 'CIUDAD_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA'}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'pagina_encontrado': 19, 'pagina_es_correcta': True, 'pagina_real': 19, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA TERCERA', 'valor_real': 'VIGESIMA TERCERA'}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'pagina_encontrado': 20, 'pagina_es_correcta': True, 'pagina_real': 20, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA QUINTA', 'valor_real': 'VIGESIMA QUINTA'}, 'CLAUSULA_PRORROGA': {'pagina_encontrado': 14, 'pagina_es_correcta': True, 'pagina_real': 14, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA SEGUNDA', 'valor_real': 'DECIMA SEGUNDA'}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'pagina_encontrado': 17, 'pagina_es_correcta': True, 'pagina_real': 17, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA', 'valor_real': 'VIGESIMA'}, 'CLAUSULA_INT_ORD': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA'}, 'CLAUSULA_PLAZO': {'pagina_encontrado': 11, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEXTA', 'valor_real': 'SEXTA'}, 'CREDITO_PESOS': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'valor_real': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)'}, 'DESCRIPCION_INMUEBLE': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE'}, 'DISTRITO_RPP': {'pagina_encontrado': 5, 'pagina_es_correcta': False, 'pagina_real': 62, 'texto_es_correcto': False, 'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH'}, 'DOMICILIO_GARANTIA': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE'}, 'ESTADO_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'FECHA_ESCRITURA': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'valor_real': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO'}, 'JURISDICCION_NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA, CHIHUAHUA', 'valor_real': 'CHIHUAHUA, CHIHUAHUA'}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'pagina_encontrado': 20, 'pagina_es_correcta': True, 'pagina_real': 20, 'texto_es_correcto': True, 'valor_encontrado': 'DISTRITO FEDERAL', 'valor_real': 'DISTRITO FEDERAL'}, 'COLINDANCIAS_1': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'valor_real': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO'}, 'COLINDANCIAS_2': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 4 CUATRO', 'valor_real': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO'}, 'COLINDANCIAS_3': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 2 DOS', 'valor_real': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS'}, 'COLINDANCIAS_4': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NUMERO 40 CUARENTA', 'valor_real': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA'}, 'NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'LUIS ARTURO CALDERON TRUEBA', 'valor_real': 'LUIS ARTURO CALDERON TRUEBA'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA'}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'pagina_encontrado': 13, 'pagina_es_correcta': False, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA'}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA'}, 'NUM_NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'DIEZ', 'valor_real': 'DIEZ'}, 'PLAZO_ANIOS': {'pagina_encontrado': 11, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '30 TREINTA AÑOS', 'valor_real': '30 TREINTA AÑOS'}, 'REA_VSM': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'valor_real': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO'}, 'PORCENTAJE_ROA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)'}, 'ROA_VSM': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'valor_real': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': False, 'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'SUPERFICIE_TERRENO': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 49, 'pagina_es_correcta': False, 'pagina_real': 14, 'texto_es_correcto': False, 'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO'}, 'TASA_INTERES_ORDINARIO': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': '9.00% NUEVE PUNTO CERO POR CIENTO', 'valor_real': '9.00% NUEVE PUNTO CERO POR CIENTO'}, 'TEXTO_ACTUALIZACION': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'valor_real': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL'}, 'TEXTO_CLAUSULA_HIPOTECA': {'pagina_encontrado': 19, 'pagina_es_correcta': True, 'pagina_real': 19, 'texto_es_correcto': True, 'valor_encontrado': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA'}, 'TIPO_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA HABITACION'}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'VSM', 'valor_real': 'VSM'}, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML'}, 'DELEGACION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 '}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'pagina_encontrado': 9, 'pagina_es_correcta': True, 'pagina_real': 9, 'texto_es_correcto': True, 'valor_encontrado': '5', 'valor_real': '5'}, 'MONTO_VSM_INTERES_MORATORIO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '5.2000', 'valor_real': '5.2000'}, 'NOMBRE_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'OLIVAS RAMIREZ FELIPE DE JESUS', 'valor_real': 'OLIVAS RAMIREZ FELIPE DE JESUS'}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '805117974'}, 'NUMERO_HOJAS_CA': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '9', 'valor_real': '9'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152'}, 'SUERTE_PRINCIPAL': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '114.9030', 'valor_real': '114.9030'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
+          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_paginas_correctas': 0.918918918918919, 'DISTRITO_RPP': {'pagina_encontrado': 5, 'pagina_es_correcta': False, 'pagina_real': 62, 'texto_es_correcto': False, 'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': False, 'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 49, 'pagina_es_correcta': False, 'pagina_real': 14, 'texto_es_correcto': False, 'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO'}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 '}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '805117974'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
         </is>
       </c>
     </row>

--- a/app/results/reviewed/805117974.xlsx
+++ b/app/results/reviewed/805117974.xlsx
@@ -4051,7 +4051,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>180</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3">
@@ -4122,7 +4122,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_paginas_correctas': 0.918918918918919, 'DISTRITO_RPP': {'pagina_encontrado': 5, 'pagina_es_correcta': False, 'pagina_real': 62, 'texto_es_correcto': False, 'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': False, 'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 49, 'pagina_es_correcta': False, 'pagina_real': 14, 'texto_es_correcto': False, 'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO'}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 '}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '805117974'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
+          <t>{'ner-general': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}, 'ner-escritura': {'entidades_correctas': 34, 'entidades_incorrectas': 3, 'porcentaje_entidades_correctas': 0.918918918918919, 'paginas_correctas': 34, 'paginas_incorrectas': 3, 'porcentaje_paginas_correctas': 0.918918918918919, 'CIUDAD_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'CLAUSULA_ACTUALIZACION_CREDITO': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA'}, 'CLAUSULA_CONSTITUCION_HIPOTECA': {'pagina_encontrado': 19, 'pagina_es_correcta': True, 'pagina_real': 19, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA TERCERA', 'valor_real': 'VIGESIMA TERCERA'}, 'CLAUSULA_JURISDICCION_COMPETENCIA': {'pagina_encontrado': 20, 'pagina_es_correcta': True, 'pagina_real': 20, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA QUINTA', 'valor_real': 'VIGESIMA QUINTA'}, 'CLAUSULA_PRORROGA': {'pagina_encontrado': 14, 'pagina_es_correcta': True, 'pagina_real': 14, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA SEGUNDA', 'valor_real': 'DECIMA SEGUNDA'}, 'CLAUSULA_VENCIMIENTO_ANTICIPADO': {'pagina_encontrado': 17, 'pagina_es_correcta': True, 'pagina_real': 17, 'texto_es_correcto': True, 'valor_encontrado': 'VIGESIMA', 'valor_real': 'VIGESIMA'}, 'CLAUSULA_INT_ORD': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': 'NOVENA', 'valor_real': 'NOVENA'}, 'CLAUSULA_PLAZO': {'pagina_encontrado': 11, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEXTA', 'valor_real': 'SEXTA'}, 'CREDITO_PESOS': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)', 'valor_real': '$244,999.92 (DOSCIENTOS CUARENTA Y CUATRO MIL NOVECIENTOS NOVENTA Y NUEVE PESOS 92/100)'}, 'DESCRIPCION_INMUEBLE': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE'}, 'DISTRITO_RPP': {'pagina_encontrado': 5, 'pagina_es_correcta': False, 'pagina_real': 62, 'texto_es_correcto': False, 'valor_encontrado': 'CHIHUAHUA,', 'valor_real': 'CHIHUAHUA, CHIH'}, 'DOMICILIO_GARANTIA': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE', 'valor_real': 'FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE'}, 'ESTADO_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'FECHA_ESCRITURA': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO', 'valor_real': 'ONCE DIAS DEL MES DE JULIO DEL AÑO DOS MIL CINCO'}, 'JURISDICCION_NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA, CHIHUAHUA', 'valor_real': 'CHIHUAHUA, CHIHUAHUA'}, 'JURISDICCION_SOMETIMIENTO_EXPRESO': {'pagina_encontrado': 20, 'pagina_es_correcta': True, 'pagina_real': 20, 'texto_es_correcto': True, 'valor_encontrado': 'DISTRITO FEDERAL', 'valor_real': 'DISTRITO FEDERAL'}, 'COLINDANCIAS_1': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO', 'valor_real': 'POR SU FRENTE 7.00 MTS. SIETE METROS CON LA CALLE DEL LUCERO'}, 'COLINDANCIAS_2': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 4 CUATRO', 'valor_real': 'POR SU COSTADO DERECHO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 4 CUATRO'}, 'COLINDANCIAS_3': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTIMETROS CON LOTE NUMERO 2 DOS', 'valor_real': 'POR SU COSTADO IZQUIERDO 17.15 MTS. DIECISIETE METROS QUINCE CENTÍMETROS CON LOTE NÚMERO 2 DOS'}, 'COLINDANCIAS_4': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NUMERO 40 CUARENTA', 'valor_real': 'POR SU ESPALDA 7.00 MTS. SIETE METROS CON LOTE NÚMERO 40 CUARENTA'}, 'NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'LUIS ARTURO CALDERON TRUEBA', 'valor_real': 'LUIS ARTURO CALDERON TRUEBA'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_REA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA'}, 'NUM_ CLAUSULA_DESCUENTO_SALARIO_ROA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'SEPTIMA', 'valor_real': 'SEPTIMA'}, 'NUM_CLAUSULA_INTERES_MORATORIO': {'pagina_encontrado': 13, 'pagina_es_correcta': False, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': 'DECIMA', 'valor_real': 'DECIMA'}, 'NUM_CLAUSULA_OTORGAMIENTO_CREDITO': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'PRIMERA', 'valor_real': 'PRIMERA'}, 'NUM_NOTARIO': {'pagina_encontrado': 4, 'pagina_es_correcta': True, 'pagina_real': 4, 'texto_es_correcto': True, 'valor_encontrado': 'DIEZ', 'valor_real': 'DIEZ'}, 'PLAZO_ANIOS': {'pagina_encontrado': 11, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '30 TREINTA AÑOS', 'valor_real': '30 TREINTA AÑOS'}, 'REA_VSM': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO', 'valor_real': '50.6160 CINCUENTA PUNTO SEIS UNO SEIS CERO'}, 'PORCENTAJE_ROA': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '20% (VEINTE POR CIENTO)', 'valor_real': '20% (VEINTE POR CIENTO)'}, 'ROA_VSM': {'pagina_encontrado': 12, 'pagina_es_correcta': True, 'pagina_real': 12, 'texto_es_correcto': True, 'valor_encontrado': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO', 'valor_real': '41.8760 CUARENTA Y UNO PUNTO OCHO SIETE SEIS CERO'}, 'SUPERFICIE_CONSTRUCCION': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': False, 'valor_encontrado': '68,711.89 SESENTA Y OCHO MIL SETECIENTOS ONCE METROS OCHENTA Y NUEVE DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'SUPERFICIE_TERRENO': {'pagina_encontrado': 5, 'pagina_es_correcta': True, 'pagina_real': 5, 'texto_es_correcto': True, 'valor_encontrado': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS', 'valor_real': '120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS'}, 'TASA_INTERES_MORATORIO': {'pagina_encontrado': 49, 'pagina_es_correcta': False, 'pagina_real': 14, 'texto_es_correcto': False, 'valor_encontrado': '9.00% ANUAL FIJO', 'valor_real': '9.00% NUEVE POR CIENTO'}, 'TASA_INTERES_ORDINARIO': {'pagina_encontrado': 13, 'pagina_es_correcta': True, 'pagina_real': 13, 'texto_es_correcto': True, 'valor_encontrado': '9.00% NUEVE PUNTO CERO POR CIENTO', 'valor_real': '9.00% NUEVE PUNTO CERO POR CIENTO'}, 'TEXTO_ACTUALIZACION': {'pagina_encontrado': 10, 'pagina_es_correcta': True, 'pagina_real': 10, 'texto_es_correcto': True, 'valor_encontrado': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL', 'valor_real': 'EL TRABAJADOR RECONOCE DEBER Y SE OBLIGA A PAGAR A EL INFONAVIT EL MONTO DEL CREDITO OTORGADO EN ESTE ACTO, EN LOS TERMINOS Y CONDICIONES PACTADAS EN ESTA ESCRITURA, ACEPTANDO QUE EL SALDO DEL CREDITO SE INCREMENTARA EN LA MISMA PROPORCION EN QUE AUMENTE EL SALARIO MINIMO DIARIO GENERAL QUE RIJA EN EL DISTRITO FEDERAL'}, 'TEXTO_CLAUSULA_HIPOTECA': {'pagina_encontrado': 19, 'pagina_es_correcta': True, 'pagina_real': 19, 'texto_es_correcto': True, 'valor_encontrado': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA', 'valor_real': 'EL TRABAJADOR Y SU CONYUGE, SENOR(A) MARIA TERESA BARRIOS IBARRA, PARA GARANTIZAR TODAS Y CADA UNA DE LAS OBLIGACIONES QUE SE CONTRAEN POR VIRTUD DEL PRESENTE CONTRATO, CONSTITUYE(N) HIPOTECA, SIENDO LAS 10:30 DIEZ HORAS TREINTA MINUTOS DEL DIA DE LA FECHA, A FAVOR DE EL INFONAVIT SOBRE LA FINCA MARCADA CON EL NUMERO 11,504 ONCE MIL QUINIENTOS CUATRO, DE LA CALLE DEL LUCERO, DEL FRACCIONAMIENTO LA GALERA ETAPA V CINCO, DE ESTA CIUDAD DE CHIHUAHUA, CONSTRUIDA SOBRE EL LOTE DE TERRENO NUMERO 3 TRES, DE LA MANZANA 9 NUEVE, CON SUPERFICIE DE 120.05 M2. CIENTO VEINTE METROS CINCO DECIMETROS CUADRADOS, INMUEBLE RELACIONADO EN EL ANTECEDENTE PRIMERO DE ESTA ESCRITURA'}, 'TIPO_INMUEBLE': {'pagina_encontrado': 27, 'pagina_es_correcta': True, 'pagina_real': 27, 'texto_es_correcto': True, 'valor_encontrado': 'CASA HABITACION', 'valor_real': 'CASA HABITACION'}}, 'ner-certificado': {'entidades_correctas': 7, 'entidades_incorrectas': 4, 'porcentaje_entidades_correctas': 0.6363636363636364, 'paginas_correctas': 7, 'paginas_incorrectas': 4, 'porcentaje_paginas_correctas': 1.0, 'CONDICIONES _CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'VSM', 'valor_real': 'VSM'}, 'CURP_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': 'OIRF790826HCHLML'}, 'DELEGACION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'CHIHUAHUA', 'valor_real': 'CHIHUAHUA'}, 'FECHA_EMISION': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '25 DE AGOSTO DE 2017 '}, 'MESES_ADEUDADOS_CERTIFICADO_ADEUDOS': {'pagina_encontrado': 9, 'pagina_es_correcta': True, 'pagina_real': 9, 'texto_es_correcto': True, 'valor_encontrado': '5', 'valor_real': '5'}, 'MONTO_VSM_INTERES_MORATORIO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '5.2000', 'valor_real': '5.2000'}, 'NOMBRE_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': 'OLIVAS RAMIREZ FELIPE DE JESUS', 'valor_real': 'OLIVAS RAMIREZ FELIPE DE JESUS'}, 'NUMERO_CREDITO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': ' ', 'valor_real': '805117974'}, 'NUMERO_HOJAS_CA': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '9', 'valor_real': '9'}, 'RFC_ACREDITADO': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': False, 'valor_encontrado': 'FACULTADES', 'valor_real': 'OIRF790828152'}, 'SUERTE_PRINCIPAL': {'pagina_encontrado': 1, 'pagina_es_correcta': True, 'pagina_real': 1, 'texto_es_correcto': True, 'valor_encontrado': '114.9030', 'valor_real': '114.9030'}}, 'avaluo_adjudicacion': {'entidades_correctas': 0, 'entidades_incorrectas': 0, 'porcentaje_entidades_correctas': 1, 'paginas_correctas': 0, 'paginas_incorrectas': 0, 'porcentaje_paginas_correctas': 1}}</t>
         </is>
       </c>
     </row>
